--- a/data/trans_dic/P37A$medicootras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.006060010861667792</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.008972529748006117</v>
+        <v>0.008972529748006119</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.002088494710022815</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001840127753480369</v>
+        <v>0.001760240407941843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001575707868332191</v>
+        <v>0.001294187800138165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005432184570578128</v>
+        <v>0.005790826464748792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0007270637578016524</v>
+        <v>0.0007238030490125942</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001687307965571271</v>
+        <v>0.001683998836294632</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002176691191950379</v>
+        <v>0.002091433548837529</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004743637130091288</v>
+        <v>0.004793503562765807</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0007714264274029707</v>
+        <v>0.0007785575751063194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002498641287631712</v>
+        <v>0.002659354777192349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002828178905798938</v>
+        <v>0.002760928716440993</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006575570152910808</v>
+        <v>0.006140906553429708</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.006676502355361569</v>
+        <v>0.005918789137796034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0112886301874079</v>
+        <v>0.01135194231994712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01253517832664001</v>
+        <v>0.01309424900716073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02733913472603106</v>
+        <v>0.02746165682144268</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.006237728481381253</v>
+        <v>0.006222030958253798</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.009947896097948241</v>
+        <v>0.01003464464972893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01262371267617271</v>
+        <v>0.01245681370166399</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01502222187021406</v>
+        <v>0.01551040649194995</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.004675687984674735</v>
+        <v>0.004656605887082963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.008303807751762059</v>
+        <v>0.008706908929079256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01076590855701308</v>
+        <v>0.01020718154274458</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01659084506655974</v>
+        <v>0.01643018731169586</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.005614955815458612</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01414698471023165</v>
+        <v>0.01414698471023164</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.001469103928195129</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002545141113384525</v>
+        <v>0.002450488945075214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00329868231761708</v>
+        <v>0.003654186428427999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002584601246863809</v>
+        <v>0.002476816464022627</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.000611378582236864</v>
+        <v>0.0006145091998836375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004608718306277551</v>
+        <v>0.005021359054039462</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003135834978030989</v>
+        <v>0.002980156222285866</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009945594633638163</v>
+        <v>0.01045579013482158</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.000567226288848944</v>
+        <v>0.0005853010440510718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004507417902776263</v>
+        <v>0.00415895223511381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003870315861507531</v>
+        <v>0.003664025566130543</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007173408818975825</v>
+        <v>0.007112562339837473</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.003776856903670419</v>
+        <v>0.003835927147056783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01002308824052428</v>
+        <v>0.01021793807409197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01057576063693508</v>
+        <v>0.01108022327151562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01068761781000741</v>
+        <v>0.009961622543115899</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.005083848995105951</v>
+        <v>0.005159329208897772</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01444645867238782</v>
+        <v>0.01479426764262053</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01083855457185214</v>
+        <v>0.009627518406394073</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01930169989936631</v>
+        <v>0.01997382007051707</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003203424317298672</v>
+        <v>0.003237013782642123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01023994557343002</v>
+        <v>0.0101933050382143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008620616120916677</v>
+        <v>0.008525729467939468</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01317304805665322</v>
+        <v>0.01258900198877232</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.006738622082783447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.005830670814269558</v>
+        <v>0.005830670814269557</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.002593613610129819</v>
@@ -969,7 +969,7 @@
         <v>0.008371762174060575</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.01060202705437282</v>
+        <v>0.01060202705437281</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001651326747850713</v>
+        <v>0.001658801905077746</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001617858257281217</v>
+        <v>0.001651835270504363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002051786469925571</v>
+        <v>0.002080777606882948</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003892014016334492</v>
+        <v>0.002282123790427826</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003374789691123684</v>
+        <v>0.0033118191845817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008723935724156511</v>
+        <v>0.008407300936170863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001198508820516606</v>
+        <v>0.001202000067034737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002123106247828318</v>
+        <v>0.002101313289404055</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004101568634192624</v>
+        <v>0.004067011157229646</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006492519964363326</v>
+        <v>0.007068287336876806</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01901558384336545</v>
+        <v>0.0196166283697446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02035742503942639</v>
+        <v>0.01935956359856419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01949141820875775</v>
+        <v>0.01984341012619336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01239940697512442</v>
+        <v>0.01384120422930578</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01463116539308144</v>
+        <v>0.01480306947426807</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02829352484537847</v>
+        <v>0.02721017966180982</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0247944440316297</v>
+        <v>0.0235884897504951</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02685744229499367</v>
+        <v>0.02460941514003176</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01214503092395441</v>
+        <v>0.01142179451965782</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01609479266165122</v>
+        <v>0.01691666269678018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01724153449198231</v>
+        <v>0.01705935857357351</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01610244765862474</v>
+        <v>0.0166105447909821</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.006036282210515299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.006545074619382253</v>
+        <v>0.006545074619382254</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.002136367571967852</v>
@@ -1105,7 +1105,7 @@
         <v>0.006233327412865901</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009977109278369639</v>
+        <v>0.009977109278369643</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002938612875843044</v>
+        <v>0.002739930720224786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0037126773905563</v>
+        <v>0.003736611634246032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004243549961145746</v>
+        <v>0.004157550440407757</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004655338249061065</v>
+        <v>0.004825506405410533</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004120219996828127</v>
+        <v>0.003981248903355624</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01033040873128528</v>
+        <v>0.01019500970592706</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004518475552955539</v>
+        <v>0.004412876248097146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004353750764283311</v>
+        <v>0.004281137603815629</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008006192531788168</v>
+        <v>0.007806455544430362</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.008363680089316015</v>
+        <v>0.008254724096952923</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00944088881960815</v>
+        <v>0.00949137137345896</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01032377846237266</v>
+        <v>0.0104160932582236</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01099295788788016</v>
+        <v>0.01109499580252052</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.009774705958552996</v>
+        <v>0.009627231413923132</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01663200426866857</v>
+        <v>0.01692798100358126</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.008348588528496121</v>
+        <v>0.008394552235042466</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.008337502594987731</v>
+        <v>0.008327973783498399</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01257849478545405</v>
+        <v>0.01228392381752593</v>
       </c>
     </row>
     <row r="16">
@@ -1466,37 +1466,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1793</v>
+        <v>1716</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1189</v>
+        <v>976</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3143</v>
+        <v>3350</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2165</v>
+        <v>2080</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3899</v>
+        <v>3940</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1810</v>
+        <v>1827</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5778</v>
+        <v>6150</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4947</v>
+        <v>4829</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9210</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6888</v>
+        <v>6107</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11002</v>
+        <v>11064</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9456</v>
+        <v>9878</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15816</v>
+        <v>15887</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8203</v>
+        <v>8183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13308</v>
+        <v>13424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12556</v>
+        <v>12390</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12349</v>
+        <v>12750</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10973</v>
+        <v>10928</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19202</v>
+        <v>20134</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18830</v>
+        <v>17852</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23237</v>
+        <v>23012</v>
       </c>
     </row>
     <row r="8">
@@ -1646,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4999</v>
+        <v>4813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6849</v>
+        <v>7587</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5765</v>
+        <v>5525</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8101</v>
+        <v>8827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6235</v>
+        <v>5925</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21596</v>
+        <v>22704</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1861</v>
+        <v>1920</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16776</v>
+        <v>15479</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15732</v>
+        <v>14893</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>31577</v>
+        <v>31309</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6396</v>
+        <v>6496</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19685</v>
+        <v>20068</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21959</v>
+        <v>23007</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23839</v>
+        <v>22220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8071</v>
+        <v>8191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25394</v>
+        <v>26005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21550</v>
+        <v>19142</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41912</v>
+        <v>43371</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10511</v>
+        <v>10621</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>38111</v>
+        <v>37937</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35040</v>
+        <v>34654</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57987</v>
+        <v>55416</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1785</v>
+        <v>1047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1853</v>
+        <v>1819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6411</v>
+        <v>6178</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1995</v>
+        <v>1975</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4495</v>
+        <v>4458</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9391</v>
+        <v>10224</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10485</v>
+        <v>10817</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9796</v>
+        <v>9315</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10660</v>
+        <v>10852</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8823</v>
+        <v>9849</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6970</v>
+        <v>7052</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12976</v>
+        <v>12479</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13616</v>
+        <v>12953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19737</v>
+        <v>18085</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12483</v>
+        <v>11740</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15126</v>
+        <v>15898</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18897</v>
+        <v>18698</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23292</v>
+        <v>24027</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10049</v>
+        <v>9370</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12540</v>
+        <v>12621</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14940</v>
+        <v>14637</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16546</v>
+        <v>17151</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14553</v>
+        <v>14062</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>38515</v>
+        <v>38010</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31512</v>
+        <v>30775</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>30083</v>
+        <v>29581</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>58037</v>
+        <v>56589</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28602</v>
+        <v>28229</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31888</v>
+        <v>32058</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36347</v>
+        <v>36672</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>39072</v>
+        <v>39434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34525</v>
+        <v>34004</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62009</v>
+        <v>63113</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58223</v>
+        <v>58544</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>57610</v>
+        <v>57544</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>91181</v>
+        <v>89046</v>
       </c>
     </row>
     <row r="20">
